--- a/biology/Histoire de la zoologie et de la botanique/Édouard_Harlé/Édouard_Harlé.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Édouard_Harlé/Édouard_Harlé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Harl%C3%A9</t>
+          <t>Édouard_Harlé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Harlé, né le 13 mai 1850 à Toulouse et mort le 28 juillet 1922 à Bordeaux, est un ingénieur, paléontologue et préhistorien français. Ingénieur en chef des ponts et chaussées et directeur de la Compagnie des chemins de fer du Midi, il consacra ses loisirs et sa retraite à ses recherches en paléontologie et préhistoire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Harl%C3%A9</t>
+          <t>Édouard_Harlé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Harlé est l’arrière-petit-fils de Charles-Guillaume Gamot et d’Edme-Jacques Genet. Fils de Casimir Édouard Harlé, ingénieur des ponts et chaussées, il épouse Jeanne Amélie Glotin, fille du lieutenant de vaisseau Pierre-Joseph Glotin (1828-1884) et de Suzanne Legrand, héritière par sa mère, Laure Roger, de la maison Marie Brizard, et sœur d'Édouard et Paul Glotin.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89douard_Harl%C3%A9</t>
+          <t>Édouard_Harlé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Ingénieur des ponts et chaussées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Entré à l'école Polytechnique en 1869, puis diplômé de l'École nationale des ponts et chaussées, il construit un grand nombre de ponts dans le Midi de la France, dont celui de la Basilique Notre-Dame-du-Rosaire de Lourdes.
 Il est secrétaire scientifique de la Commission de l'Observatoire de 1875 à 1877.
-De 1878 à 1881, il construit l'Observatoire du Pic du Midi[1].
+De 1878 à 1881, il construit l'Observatoire du Pic du Midi.
 Il réside à Toulouse de 1890 à 1900.
 Ingénieur en chef des ponts et chaussées en 1897, il devient directeur de la Compagnie des chemins de fer du Midi.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89douard_Harl%C3%A9</t>
+          <t>Édouard_Harlé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Paléontologie et préhistoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1881, Édouard Harlé, chargé de mener une inspection par Émile Cartailhac, étudie les peintures pariétales de la grotte d'Altamira nouvellement découverte, en Espagne. Dans son rapport, il se conforme à l'idée dominante de l'époque en remettant en cause l'authenticité des peintures[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1881, Édouard Harlé, chargé de mener une inspection par Émile Cartailhac, étudie les peintures pariétales de la grotte d'Altamira nouvellement découverte, en Espagne. Dans son rapport, il se conforme à l'idée dominante de l'époque en remettant en cause l'authenticité des peintures.
 Vers 1900, Édouard Harlé s'installe à Bordeaux. À sa retraite, il se consacre entièrement à ses recherches en paléontologie et préhistoire.
-Édouard Harlé étudia notamment les faunes quaternaires de la péninsule Ibérique et du Sud-Ouest de la France[1].
+Édouard Harlé étudia notamment les faunes quaternaires de la péninsule Ibérique et du Sud-Ouest de la France.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89douard_Harl%C3%A9</t>
+          <t>Édouard_Harlé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Sociétés savantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Édouard Harlé fut président de la Société d'histoire naturelle de Toulouse en 1895[3], membre et archiviste de l'Académie nationale des sciences, belles-lettres et arts de Bordeaux, membre de la Société préhistorique française, membre correspondant de l'Académie royale d'histoire (Real Academia de Historia) de Madrid et membre consultatif du Muséum d'histoire naturelle de Bordeaux.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Édouard Harlé fut président de la Société d'histoire naturelle de Toulouse en 1895, membre et archiviste de l'Académie nationale des sciences, belles-lettres et arts de Bordeaux, membre de la Société préhistorique française, membre correspondant de l'Académie royale d'histoire (Real Academia de Historia) de Madrid et membre consultatif du Muséum d'histoire naturelle de Bordeaux.
 Ses collections ont été léguées aux Muséum d'histoire naturelle de Bordeaux et au Muséum de Toulouse.
 			Nucléus Pressignien - Coll. Hallé - Muséum de Toulouse
 			Bigorneaux d'Altamira Fouille de 1881 - Muséum de Toulouse
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89douard_Harl%C3%A9</t>
+          <t>Édouard_Harlé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,7 +667,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>« Notes prises au cours de chemins de fer 1891-1892 », 1892.
 « Restes d'élan et de lion dans une station préhistorique de transition entre le quaternaire et les temps actuels à Saint-Martory (Haute-Garonne) », 1894.
@@ -682,9 +704,43 @@
 « Études sur les landes de Gascogne. I. La soi-disant "Pénéplaine landaise" de Gascogne. II. Ancien lit de l'Adour à son débouché dans la mer, avec observations sur les dunes... ».
 « Signes peints sur des maisons en Espagne ».
 « Une empreinte pédiforme moderne ».
-« Les ressources forestières et les améliorations sylvo-pastorales dans les Hautes-Pyrénées ».
-Préhistoire
-« La grotte d'Altamira près de Santander (Espagne) », 1881
+« Les ressources forestières et les améliorations sylvo-pastorales dans les Hautes-Pyrénées ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Édouard_Harlé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard_Harl%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Préhistoire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>« La grotte d'Altamira près de Santander (Espagne) », 1881
 Un silex préhistorique sur le Pic-du-Midi de Bigorre, Bulletin de la Société préhistorique française, numéro 19-4, p.107-108, 1922, lire en ligne</t>
         </is>
       </c>
